--- a/Ferramente de investimento.xlsx
+++ b/Ferramente de investimento.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arauj\OneDrive\Área de Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA3DA04-A956-4588-9265-B313DCC0FE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BBA91A-7743-463B-B5BC-75EE23A57918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="567" xr2:uid="{4EA35F89-6D25-4EBC-A439-41035348206E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" xr2:uid="{4EA35F89-6D25-4EBC-A439-41035348206E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="sugestao">Planilha1!$D$15</definedName>
+    <definedName name="sugestao">Planilha1!$D$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>INVESTIMENTO MENSAL</t>
   </si>
@@ -124,6 +125,27 @@
   </si>
   <si>
     <t>HOTELARIAS</t>
+  </si>
+  <si>
+    <t>TIPO DE FII</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>CHAVE</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>Agressivo</t>
+  </si>
+  <si>
+    <t>Conservador-TIJOLO</t>
+  </si>
+  <si>
+    <t>SIMULADOR FINANCEIRO</t>
   </si>
 </sst>
 </file>
@@ -135,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,8 +247,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,8 +304,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -321,6 +357,15 @@
         <color theme="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -534,7 +579,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,6 +594,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -564,43 +610,40 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,55 +655,58 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="21"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="21"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
+    <xf numFmtId="8" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="8" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="4"/>
@@ -679,6 +725,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -688,6 +735,15 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1007,17 +1063,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CC6F6C-715E-4B9C-B220-E890AA3DEBF6}">
-  <dimension ref="A11:L51"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.109375" hidden="1" customWidth="1"/>
@@ -1025,326 +1081,664 @@
     <col min="9" max="12" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:4" ht="26.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="2:4" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="2:4" ht="26.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="5"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="14">
+        <f>D6*30%</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:4" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="16">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="11">
-        <v>5000</v>
+      <c r="B13" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="17">
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="12">
-        <v>6.0000000000000001E-3</v>
+      <c r="B14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32">
+        <f>FV(D13,D12*12,D11)*-1</f>
+        <v>16760.803871851687</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="13">
-        <f>D13*30%</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
+      <c r="B15" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35">
+        <f>D14*$D$7</f>
+        <v>100.56482323111013</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:4" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="37">
+        <f>FV($D$13,$A18*12,$D$11*-1)</f>
+        <v>5446.172732116318</v>
+      </c>
+      <c r="D18" s="38">
+        <f>C18*$D$7</f>
+        <v>32.677036392697907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="40">
+        <f>FV($D$13,$A19*12,$D$11*-1)</f>
+        <v>16760.803871851687</v>
+      </c>
+      <c r="D19" s="41">
+        <f>C19*$D$7</f>
+        <v>100.56482323111013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="40">
+        <f>FV($D$13,$A20*12,$D$11*-1)</f>
+        <v>48691.533250960019</v>
+      </c>
+      <c r="D20" s="41">
+        <f>C20*$D$7</f>
+        <v>292.14919950576012</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="40">
+        <f>FV($D$13,$A21*12,$D$11*-1)</f>
+        <v>225409.79865970465</v>
+      </c>
+      <c r="D21" s="41">
+        <f>C21*$D$7</f>
+        <v>1352.4587919582279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="43">
+        <f>FV($D$13,$A22*12,$D$11*-1)</f>
+        <v>866780.96206335025</v>
+      </c>
+      <c r="D22" s="44">
+        <f>C22*$D$7</f>
+        <v>5200.6857723801013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="50">
+        <f>D11</f>
+        <v>200</v>
+      </c>
+      <c r="D25" s="48"/>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="56">
+        <f>VLOOKUP($C$24&amp;"-"&amp;B28,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="47">
+        <f>C28*$C$25</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="56">
+        <f>VLOOKUP($C$24&amp;"-"&amp;B29,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="47">
+        <f t="shared" ref="D29:D33" si="0">C29*$C$25</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="56">
+        <f>VLOOKUP($C$24&amp;"-"&amp;B30,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="47">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="56">
+        <f>VLOOKUP($C$24&amp;"-"&amp;B31,Planilha2!$A:$D,4,FALSE)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="47">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="56">
+        <f>VLOOKUP($C$24&amp;"-"&amp;B32,Planilha2!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B20" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="16">
-        <v>1.0800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="B21" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31">
-        <f>FV(D20,D19*12,D18)*-1</f>
-        <v>41902.00967962922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34">
-        <f>D21*$D$14</f>
-        <v>251.41205807777533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:4" ht="29.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="36">
-        <f>FV($D$20,$A25*12,$D$18*-1)</f>
-        <v>13615.431830290796</v>
-      </c>
-      <c r="D25" s="37">
-        <f>C25*$D$14</f>
-        <v>81.692590981744772</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="39">
-        <f>FV($D$20,$A26*12,$D$18*-1)</f>
-        <v>41902.00967962922</v>
-      </c>
-      <c r="D26" s="40">
-        <f>C26*$D$14</f>
-        <v>251.41205807777533</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>10</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="39">
-        <f>FV($D$20,$A27*12,$D$18*-1)</f>
-        <v>121728.83312740005</v>
-      </c>
-      <c r="D27" s="40">
-        <f>C27*$D$14</f>
-        <v>730.37299876440034</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>20</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="39">
-        <f>FV($D$20,$A28*12,$D$18*-1)</f>
-        <v>563524.49664926168</v>
-      </c>
-      <c r="D28" s="40">
-        <f>C28*$D$14</f>
-        <v>3381.14697989557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
-        <v>30</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="42">
-        <f>FV($D$20,$A29*12,$D$18*-1)</f>
-        <v>2166952.4051583759</v>
-      </c>
-      <c r="D29" s="43">
-        <f>C29*$D$14</f>
-        <v>13001.714430950255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="44"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="49">
-        <f>D18</f>
-        <v>500</v>
-      </c>
-      <c r="D32" s="47"/>
-    </row>
-    <row r="33" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="D35" s="46">
-        <f>C35*$C$32</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="D36" s="46">
-        <f t="shared" ref="D36:D40" si="0">C36*$C$32</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="D37" s="46">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="D38" s="46">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="54">
-        <v>0</v>
-      </c>
-      <c r="D39" s="46">
+      <c r="D32" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="3" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="54">
+      <c r="C33" s="56">
+        <f>VLOOKUP($C$24&amp;"-"&amp;B33,Planilha2!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D33" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="55">
-        <f>SUM(D35:D40)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="57">
+        <f>SUM(D28:D33)</f>
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B12:D12"/>
+  <mergeCells count="12">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31" xr:uid="{5C6EAE13-6EB5-4083-8A0A-257A5AA0C68C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{5C6EAE13-6EB5-4083-8A0A-257A5AA0C68C}">
       <formula1>"Conservador,Moderado,Agressivo"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D913294-9B03-40AB-8956-68D8C81EE7DB}">
+  <dimension ref="A3:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>$B$4&amp;"-"&amp;C4</f>
+        <v>Conservador-PAPEL</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="61">
+        <f>VLOOKUP(H4,$A:$D,4,FALSE)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" ref="A5:A15" si="0">$B$4&amp;"-"&amp;C5</f>
+        <v>Conservador-TIJOLO</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-HIBRIDO</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-FOFs</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="58" t="str">
+        <f t="shared" si="0"/>
+        <v>Conservador-HOTELARIAS</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>$B$10&amp;"-"&amp;C10</f>
+        <v>Moderado-PAPEL</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="53">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" ref="A11:A15" si="1">$B$10&amp;"-"&amp;C11</f>
+        <v>Moderado-TIJOLO</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-HIBRIDO</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="53">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-FOFs</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="58" t="str">
+        <f t="shared" si="1"/>
+        <v>Moderado-HOTELARIAS</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>$B$16&amp;"-"&amp;C16</f>
+        <v>Agressivo-PAPEL</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f t="shared" ref="A17:A21" si="2">$B$16&amp;"-"&amp;C17</f>
+        <v>Agressivo-TIJOLO</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-HIBRIDO</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-FOFs</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-DESENVOLVIMENTO</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f t="shared" si="2"/>
+        <v>Agressivo-HOTELARIAS</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>